--- a/fertility.xlsx
+++ b/fertility.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
   <si>
     <t>обычная</t>
   </si>
@@ -46,6 +46,33 @@
   </si>
   <si>
     <t>},</t>
+  </si>
+  <si>
+    <t>&lt;tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/tr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;1&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;2&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;3&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;4&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;5&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;6&lt;/td&gt;</t>
+  </si>
+  <si>
+    <t>&lt;td&gt;0&lt;/td&gt;</t>
   </si>
 </sst>
 </file>
@@ -82,9 +109,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -386,21 +414,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:AB7"/>
+      <selection activeCell="U2" sqref="U2:AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="20" width="6.5703125" style="1" customWidth="1"/>
     <col min="21" max="21" width="9.140625" style="1"/>
-    <col min="22" max="28" width="11.85546875" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="22" max="22" width="10.42578125" style="1" customWidth="1"/>
+    <col min="23" max="29" width="11.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="11.85546875" style="2" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -444,7 +474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,36 +528,49 @@
         <f t="shared" ref="T2:T6" si="1">SUM(L2:R2)</f>
         <v>100</v>
       </c>
-      <c r="V2" s="1" t="str">
-        <f>"&lt;td&gt;"&amp;B2&amp;"&lt;/td&gt;"</f>
-        <v>&lt;td&gt;10&lt;/td&gt;</v>
+      <c r="U2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="W2" s="1" t="str">
-        <f t="shared" ref="W2:AB7" si="2">"&lt;td&gt;"&amp;C2&amp;"&lt;/td&gt;"</f>
-        <v>&lt;td&gt;40&lt;/td&gt;</v>
+        <f>"&lt;td&gt;"&amp;B2&amp;"%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;10%&lt;/td&gt;</v>
       </c>
       <c r="X2" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;40&lt;/td&gt;</v>
+        <f t="shared" ref="X2:AD2" si="2">"&lt;td&gt;"&amp;C2&amp;"%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;40%&lt;/td&gt;</v>
       </c>
       <c r="Y2" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;td&gt;10&lt;/td&gt;</v>
+        <v>&lt;td&gt;40%&lt;/td&gt;</v>
       </c>
       <c r="Z2" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <v>&lt;td&gt;10%&lt;/td&gt;</v>
       </c>
       <c r="AA2" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="AB2" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
+      </c>
+      <c r="AC2" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
+      </c>
+      <c r="AD2" s="1" t="str">
+        <f>"&lt;td&gt;0%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -581,36 +624,49 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="V3" s="1" t="str">
-        <f t="shared" ref="V3:V7" si="3">"&lt;td&gt;"&amp;B3&amp;"&lt;/td&gt;"</f>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+      <c r="U3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;20&lt;/td&gt;</v>
+        <f t="shared" ref="W3:W7" si="3">"&lt;td&gt;"&amp;B3&amp;"%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="X3" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;50&lt;/td&gt;</v>
+        <f t="shared" ref="X3:X7" si="4">"&lt;td&gt;"&amp;C3&amp;"%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;20%&lt;/td&gt;</v>
       </c>
       <c r="Y3" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;25&lt;/td&gt;</v>
+        <f t="shared" ref="Y3:Y7" si="5">"&lt;td&gt;"&amp;D3&amp;"%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;50%&lt;/td&gt;</v>
       </c>
       <c r="Z3" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;5&lt;/td&gt;</v>
+        <f t="shared" ref="Z3:Z7" si="6">"&lt;td&gt;"&amp;E3&amp;"%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;25%&lt;/td&gt;</v>
       </c>
       <c r="AA3" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <f t="shared" ref="AA3:AA7" si="7">"&lt;td&gt;"&amp;F3&amp;"%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;5%&lt;/td&gt;</v>
       </c>
       <c r="AB3" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AB3:AB7" si="8">"&lt;td&gt;"&amp;G3&amp;"%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
+      </c>
+      <c r="AC3" s="1" t="str">
+        <f t="shared" ref="AC3:AC7" si="9">"&lt;td&gt;"&amp;H3&amp;"%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
+      </c>
+      <c r="AD3" s="1" t="str">
+        <f>"&lt;td&gt;10%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;10%&lt;/td&gt;</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -664,36 +720,49 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="V4" s="1" t="str">
+      <c r="U4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
-      </c>
-      <c r="W4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;5&lt;/td&gt;</v>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="X4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;25&lt;/td&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;td&gt;5%&lt;/td&gt;</v>
       </c>
       <c r="Y4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;50&lt;/td&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;td&gt;25%&lt;/td&gt;</v>
       </c>
       <c r="Z4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;15&lt;/td&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;td&gt;50%&lt;/td&gt;</v>
       </c>
       <c r="AA4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;5&lt;/td&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;td&gt;15%&lt;/td&gt;</v>
       </c>
       <c r="AB4" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>&lt;td&gt;5%&lt;/td&gt;</v>
+      </c>
+      <c r="AC4" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
+      </c>
+      <c r="AD4" s="1" t="str">
+        <f>"&lt;td&gt;20%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;20%&lt;/td&gt;</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -747,36 +816,49 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="V5" s="1" t="str">
+      <c r="U5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
-      </c>
-      <c r="W5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="X5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;10&lt;/td&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="Y5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;30&lt;/td&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;td&gt;10%&lt;/td&gt;</v>
       </c>
       <c r="Z5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;50&lt;/td&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;td&gt;30%&lt;/td&gt;</v>
       </c>
       <c r="AA5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;10&lt;/td&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;td&gt;50%&lt;/td&gt;</v>
       </c>
       <c r="AB5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>&lt;td&gt;10%&lt;/td&gt;</v>
+      </c>
+      <c r="AC5" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
+      </c>
+      <c r="AD5" s="1" t="str">
+        <f>"&lt;td&gt;30%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;30%&lt;/td&gt;</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -830,36 +912,49 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="V6" s="1" t="str">
+      <c r="U6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W6" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
-      </c>
-      <c r="W6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="X6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="Y6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;10&lt;/td&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="Z6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;30&lt;/td&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;td&gt;10%&lt;/td&gt;</v>
       </c>
       <c r="AA6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;50&lt;/td&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;td&gt;30%&lt;/td&gt;</v>
       </c>
       <c r="AB6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;10&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>&lt;td&gt;50%&lt;/td&gt;</v>
+      </c>
+      <c r="AC6" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;td&gt;10%&lt;/td&gt;</v>
+      </c>
+      <c r="AD6" s="1" t="str">
+        <f>"&lt;td&gt;40%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;40%&lt;/td&gt;</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -913,36 +1008,49 @@
         <f>SUM(L7:R7)</f>
         <v>100</v>
       </c>
-      <c r="V7" s="1" t="str">
+      <c r="U7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W7" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
-      </c>
-      <c r="W7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="X7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="Y7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <f t="shared" si="5"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="Z7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;20&lt;/td&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="AA7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;30&lt;/td&gt;</v>
+        <f t="shared" si="7"/>
+        <v>&lt;td&gt;20%&lt;/td&gt;</v>
       </c>
       <c r="AB7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>&lt;td&gt;50&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>&lt;td&gt;30%&lt;/td&gt;</v>
+      </c>
+      <c r="AC7" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>&lt;td&gt;50%&lt;/td&gt;</v>
+      </c>
+      <c r="AD7" s="1" t="str">
+        <f>"&lt;td&gt;50%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;50%&lt;/td&gt;</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -966,11 +1074,11 @@
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ref="G11:H11" si="4">G2/100+F11</f>
+        <f t="shared" ref="G11:H11" si="10">G2/100+F11</f>
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -992,82 +1100,91 @@
         <v>0.05</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" ref="O11:R11" si="5">O2/100+N11</f>
+        <f t="shared" ref="O11:R11" si="11">O2/100+N11</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>0.95000000000000007</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V11" s="1" t="str">
-        <f>"&lt;td&gt;"&amp;L2&amp;"&lt;/td&gt;"</f>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+      <c r="U11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="W11" s="1" t="str">
-        <f t="shared" ref="W11:AB11" si="6">"&lt;td&gt;"&amp;M2&amp;"&lt;/td&gt;"</f>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <f>"&lt;td&gt;"&amp;L2&amp;"%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="X11" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;td&gt;5&lt;/td&gt;</v>
+        <f t="shared" ref="X11:AC11" si="12">"&lt;td&gt;"&amp;M2&amp;"%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="Y11" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;td&gt;50&lt;/td&gt;</v>
+        <f t="shared" si="12"/>
+        <v>&lt;td&gt;5%&lt;/td&gt;</v>
       </c>
       <c r="Z11" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;td&gt;30&lt;/td&gt;</v>
+        <f t="shared" si="12"/>
+        <v>&lt;td&gt;50%&lt;/td&gt;</v>
       </c>
       <c r="AA11" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;td&gt;10&lt;/td&gt;</v>
+        <f t="shared" si="12"/>
+        <v>&lt;td&gt;30%&lt;/td&gt;</v>
       </c>
       <c r="AB11" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>&lt;td&gt;5&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>&lt;td&gt;10%&lt;/td&gt;</v>
+      </c>
+      <c r="AC11" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>&lt;td&gt;5%&lt;/td&gt;</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" ref="B12:B16" si="7">B3/100</f>
+        <f t="shared" ref="B12:B16" si="13">B3/100</f>
         <v>0</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" ref="C12:H12" si="8">C3/100+B12</f>
+        <f t="shared" ref="C12:H12" si="14">C3/100+B12</f>
         <v>0.2</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.95</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="G12" s="1">
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1077,91 +1194,100 @@
         <v>6</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" ref="L12:L16" si="9">L3/100</f>
+        <f t="shared" ref="L12:L16" si="15">L3/100</f>
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" ref="M12:R12" si="10">M3/100+L12</f>
+        <f t="shared" ref="M12:R12" si="16">M3/100+L12</f>
         <v>0</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.15</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.65</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V12" s="1" t="str">
-        <f t="shared" ref="V12:V16" si="11">"&lt;td&gt;"&amp;L3&amp;"&lt;/td&gt;"</f>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+      <c r="U12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="W12" s="1" t="str">
-        <f t="shared" ref="W12:W16" si="12">"&lt;td&gt;"&amp;M3&amp;"&lt;/td&gt;"</f>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <f t="shared" ref="W12:W16" si="17">"&lt;td&gt;"&amp;L3&amp;"%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="X12" s="1" t="str">
-        <f t="shared" ref="X12:X16" si="13">"&lt;td&gt;"&amp;N3&amp;"&lt;/td&gt;"</f>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <f t="shared" ref="X12:X16" si="18">"&lt;td&gt;"&amp;M3&amp;"%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="Y12" s="1" t="str">
-        <f t="shared" ref="Y12:Y16" si="14">"&lt;td&gt;"&amp;O3&amp;"&lt;/td&gt;"</f>
-        <v>&lt;td&gt;15&lt;/td&gt;</v>
+        <f t="shared" ref="Y12:Y16" si="19">"&lt;td&gt;"&amp;N3&amp;"%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="Z12" s="1" t="str">
-        <f t="shared" ref="Z12:Z16" si="15">"&lt;td&gt;"&amp;P3&amp;"&lt;/td&gt;"</f>
-        <v>&lt;td&gt;50&lt;/td&gt;</v>
+        <f t="shared" ref="Z12:Z16" si="20">"&lt;td&gt;"&amp;O3&amp;"%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;15%&lt;/td&gt;</v>
       </c>
       <c r="AA12" s="1" t="str">
-        <f t="shared" ref="AA12:AA16" si="16">"&lt;td&gt;"&amp;Q3&amp;"&lt;/td&gt;"</f>
-        <v>&lt;td&gt;25&lt;/td&gt;</v>
+        <f t="shared" ref="AA12:AA16" si="21">"&lt;td&gt;"&amp;P3&amp;"%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;50%&lt;/td&gt;</v>
       </c>
       <c r="AB12" s="1" t="str">
-        <f t="shared" ref="AB12:AB16" si="17">"&lt;td&gt;"&amp;R3&amp;"&lt;/td&gt;"</f>
-        <v>&lt;td&gt;10&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AB12:AB16" si="22">"&lt;td&gt;"&amp;Q3&amp;"%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;25%&lt;/td&gt;</v>
+      </c>
+      <c r="AC12" s="1" t="str">
+        <f t="shared" ref="AC12:AC16" si="23">"&lt;td&gt;"&amp;R3&amp;"%&lt;/td&gt;"</f>
+        <v>&lt;td&gt;10%&lt;/td&gt;</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ref="C13:H13" si="18">C4/100+B13</f>
+        <f t="shared" ref="C13:G13" si="24">C4/100+B13</f>
         <v>0.05</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.3</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.8</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.95000000000000007</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="H13" s="1">
@@ -1174,91 +1300,100 @@
         <v>6</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" ref="M13:R13" si="19">M4/100+L13</f>
+        <f t="shared" ref="M13:R13" si="25">M4/100+L13</f>
         <v>0</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.05</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.3</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0.8</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V13" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+      <c r="U13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="W13" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="X13" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <f t="shared" si="18"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="Y13" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;td&gt;5&lt;/td&gt;</v>
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="Z13" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;td&gt;25&lt;/td&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt;5%&lt;/td&gt;</v>
       </c>
       <c r="AA13" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;td&gt;50&lt;/td&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;td&gt;25%&lt;/td&gt;</v>
       </c>
       <c r="AB13" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>&lt;td&gt;20&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="22"/>
+        <v>&lt;td&gt;50%&lt;/td&gt;</v>
+      </c>
+      <c r="AC13" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;td&gt;20%&lt;/td&gt;</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ref="C14:H14" si="20">C5/100+B14</f>
+        <f t="shared" ref="C14:G14" si="26">C5/100+B14</f>
         <v>0</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.4</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0.9</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="H14" s="1">
@@ -1271,95 +1406,104 @@
         <v>6</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" ref="M14:R14" si="21">M5/100+L14</f>
+        <f t="shared" ref="M14:R14" si="27">M5/100+L14</f>
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.15</v>
       </c>
       <c r="Q14" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V14" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+      <c r="U14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="W14" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="X14" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <f t="shared" si="18"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="Y14" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="Z14" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;td&gt;15&lt;/td&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="AA14" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;td&gt;35&lt;/td&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;td&gt;15%&lt;/td&gt;</v>
       </c>
       <c r="AB14" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>&lt;td&gt;50&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="22"/>
+        <v>&lt;td&gt;35%&lt;/td&gt;</v>
+      </c>
+      <c r="AC14" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;td&gt;50%&lt;/td&gt;</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ref="C15:H15" si="22">C6/100+B15</f>
+        <f t="shared" ref="C15:H15" si="28">C6/100+B15</f>
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.1</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.4</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0.9</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -1369,95 +1513,104 @@
         <v>6</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" ref="M15:R15" si="23">M6/100+L15</f>
+        <f t="shared" ref="M15:R15" si="29">M6/100+L15</f>
         <v>0</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.35</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="V15" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+      <c r="U15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="W15" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="X15" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <f t="shared" si="18"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="Y15" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="Z15" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="AA15" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;td&gt;35&lt;/td&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="AB15" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>&lt;td&gt;65&lt;/td&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="22"/>
+        <v>&lt;td&gt;35%&lt;/td&gt;</v>
+      </c>
+      <c r="AC15" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;td&gt;65%&lt;/td&gt;</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ref="C16:H16" si="24">C7/100+B16</f>
+        <f t="shared" ref="C16:H16" si="30">C7/100+B16</f>
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.2</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>0.5</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1467,63 +1620,72 @@
         <v>6</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" ref="M16:R16" si="25">M7/100+L16</f>
+        <f t="shared" ref="M16:R16" si="31">M7/100+L16</f>
         <v>0</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.05</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="V16" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+      <c r="U16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="W16" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="X16" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <f t="shared" si="18"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="Y16" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <f t="shared" si="19"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="Z16" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>&lt;td&gt;0&lt;/td&gt;</v>
+        <f t="shared" si="20"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="AA16" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>&lt;td&gt;5&lt;/td&gt;</v>
+        <f t="shared" si="21"/>
+        <v>&lt;td&gt;0%&lt;/td&gt;</v>
       </c>
       <c r="AB16" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>&lt;td&gt;95&lt;/td&gt;</v>
+        <f t="shared" si="22"/>
+        <v>&lt;td&gt;5%&lt;/td&gt;</v>
+      </c>
+      <c r="AC16" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>&lt;td&gt;95%&lt;/td&gt;</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -1538,51 +1700,51 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="str">
-        <f t="shared" ref="B21:B25" si="26">A12&amp;B12&amp;"f,"&amp;C12&amp;"f,"&amp;D12&amp;"f,"&amp;E12&amp;"f,"&amp;F12&amp;"f,"&amp;G12&amp;"f,"&amp;H12&amp;I12</f>
+        <f t="shared" ref="B21:B25" si="32">A12&amp;B12&amp;"f,"&amp;C12&amp;"f,"&amp;D12&amp;"f,"&amp;E12&amp;"f,"&amp;F12&amp;"f,"&amp;G12&amp;"f,"&amp;H12&amp;I12</f>
         <v>{0f,0.2f,0.7f,0.95f,1f,0f,0},</v>
       </c>
       <c r="L21" s="1" t="str">
-        <f t="shared" ref="L21:L25" si="27">K12&amp;L12&amp;"f,"&amp;M12&amp;"f,"&amp;N12&amp;"f,"&amp;O12&amp;"f,"&amp;P12&amp;"f,"&amp;Q12&amp;"f,"&amp;R12&amp;S12</f>
+        <f t="shared" ref="L21:L25" si="33">K12&amp;L12&amp;"f,"&amp;M12&amp;"f,"&amp;N12&amp;"f,"&amp;O12&amp;"f,"&amp;P12&amp;"f,"&amp;Q12&amp;"f,"&amp;R12&amp;S12</f>
         <v>{0f,0f,0f,0.15f,0.65f,0.9f,1},</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>{0f,0.05f,0.3f,0.8f,0.95f,1f,0},</v>
       </c>
       <c r="L22" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>{0f,0f,0f,0.05f,0.3f,0.8f,1},</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>{0f,0f,0.1f,0.4f,0.9f,1f,0},</v>
       </c>
       <c r="L23" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>{0f,0f,0f,0f,0.15f,0.5f,1},</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>{0f,0f,0f,0.1f,0.4f,0.9f,1},</v>
       </c>
       <c r="L24" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>{0f,0f,0f,0f,0f,0.35f,1},</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>{0f,0f,0f,0f,0.2f,0.5f,1}};</v>
       </c>
       <c r="L25" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>{0f,0f,0f,0f,0f,0.05f,1}};</v>
       </c>
     </row>

--- a/fertility.xlsx
+++ b/fertility.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:AE7"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
         <v>40</v>
@@ -488,7 +488,7 @@
         <v>40</v>
       </c>
       <c r="E2" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -536,10 +536,10 @@
       </c>
       <c r="W2" s="1" t="str">
         <f>"&lt;td&gt;"&amp;B2&amp;"%&lt;/td&gt;"</f>
-        <v>&lt;td&gt;10%&lt;/td&gt;</v>
+        <v>&lt;td&gt;5%&lt;/td&gt;</v>
       </c>
       <c r="X2" s="1" t="str">
-        <f t="shared" ref="X2:AD2" si="2">"&lt;td&gt;"&amp;C2&amp;"%&lt;/td&gt;"</f>
+        <f t="shared" ref="X2:AC2" si="2">"&lt;td&gt;"&amp;C2&amp;"%&lt;/td&gt;"</f>
         <v>&lt;td&gt;40%&lt;/td&gt;</v>
       </c>
       <c r="Y2" s="1" t="str">
@@ -548,7 +548,7 @@
       </c>
       <c r="Z2" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;td&gt;10%&lt;/td&gt;</v>
+        <v>&lt;td&gt;15%&lt;/td&gt;</v>
       </c>
       <c r="AA2" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1056,15 +1056,15 @@
       </c>
       <c r="B11" s="1">
         <f>B2/100</f>
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="C11" s="1">
         <f>C2/100+B11</f>
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="D11" s="1">
         <f>D2/100+C11</f>
-        <v>0.9</v>
+        <v>0.85000000000000009</v>
       </c>
       <c r="E11" s="1">
         <f>E2/100+D11</f>
@@ -1691,7 +1691,7 @@
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="str">
         <f>A11&amp;B11&amp;"f,"&amp;C11&amp;"f,"&amp;D11&amp;"f,"&amp;E11&amp;"f,"&amp;F11&amp;"f,"&amp;G11&amp;"f,"&amp;H11&amp;I11</f>
-        <v>{{0.1f,0.5f,0.9f,1f,0f,0f,0},</v>
+        <v>{{0.05f,0.45f,0.85f,1f,0f,0f,0},</v>
       </c>
       <c r="L20" s="1" t="str">
         <f>K11&amp;L11&amp;"f,"&amp;M11&amp;"f,"&amp;N11&amp;"f,"&amp;O11&amp;"f,"&amp;P11&amp;"f,"&amp;Q11&amp;"f,"&amp;R11&amp;S11</f>
